--- a/vnstocks_data/DBC_data.xlsx
+++ b/vnstocks_data/DBC_data.xlsx
@@ -50362,13 +50362,13 @@
         <v>28.7</v>
       </c>
       <c r="D2496" t="n">
-        <v>28</v>
+        <v>27.55</v>
       </c>
       <c r="E2496" t="n">
-        <v>28.15</v>
+        <v>27.95</v>
       </c>
       <c r="F2496" t="n">
-        <v>1914800</v>
+        <v>3755100</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/DBC_data.xlsx
+++ b/vnstocks_data/DBC_data.xlsx
@@ -50365,10 +50365,10 @@
         <v>27.55</v>
       </c>
       <c r="E2496" t="n">
-        <v>27.95</v>
+        <v>27.85</v>
       </c>
       <c r="F2496" t="n">
-        <v>3755100</v>
+        <v>3967800</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/DBC_data.xlsx
+++ b/vnstocks_data/DBC_data.xlsx
@@ -50365,10 +50365,10 @@
         <v>27.55</v>
       </c>
       <c r="E2496" t="n">
-        <v>27.85</v>
+        <v>27.7</v>
       </c>
       <c r="F2496" t="n">
-        <v>3967800</v>
+        <v>5635500</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/DBC_data.xlsx
+++ b/vnstocks_data/DBC_data.xlsx
@@ -50365,10 +50365,10 @@
         <v>27.55</v>
       </c>
       <c r="E2496" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F2496" t="n">
-        <v>5635500</v>
+        <v>6218100</v>
       </c>
     </row>
   </sheetData>
